--- a/medicine/Enfance/L'Armée_secrète/L'Armée_secrète.xlsx
+++ b/medicine/Enfance/L'Armée_secrète/L'Armée_secrète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Arm%C3%A9e_secr%C3%A8te</t>
+          <t>L'Armée_secrète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Armée secrète (Henderson's Boys: Secret Army) est le troisième tome de la série pour jeunesse écrite par Robert Muchamore, Henderson's Boys. Il est sorti le 5 janvier 2011 en France, en Belgique et en Suisse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Arm%C3%A9e_secr%C3%A8te</t>
+          <t>L'Armée_secrète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé et intrigue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule de janvier 1941 à février 1941, après la réussite de la section de Charles Henderson lors de sa dernière mission. De retour en Angleterre avec six orphelins prêts à se battre au service de Sa Majesté, ceux-ci sont livrés à un instructeur intraitable, qui doit les préparer à leur prochaine mission d'infiltration en territoire ennemi. Ces jeunes agents ignorent encore que leur chef, confronté au mépris de sa hiérarchie, se bat pour convaincre l'état-major britannique de ne pas dissoudre son unité.
 </t>
